--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1856.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1856.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1775825496308086</v>
+        <v>1.379247069358826</v>
       </c>
       <c r="B1">
-        <v>0.2289665012830817</v>
+        <v>2.696710348129272</v>
       </c>
       <c r="C1">
-        <v>0.3461168288716427</v>
+        <v>3.296211957931519</v>
       </c>
       <c r="D1">
-        <v>1.348392184731375</v>
+        <v>3.290188312530518</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>2.014054298400879</v>
       </c>
     </row>
   </sheetData>
